--- a/Code/Results/Cases/Case_3_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.75076433358218</v>
+        <v>13.83880576904272</v>
       </c>
       <c r="C2">
-        <v>18.92226775521368</v>
+        <v>10.62394913076492</v>
       </c>
       <c r="D2">
-        <v>2.950616498767058</v>
+        <v>4.818927982790526</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.82579110882509</v>
+        <v>29.30690430826319</v>
       </c>
       <c r="G2">
-        <v>2.039320758205572</v>
+        <v>3.626321559908817</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.87335778516018</v>
+        <v>22.1744173994536</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.14042824698095</v>
+        <v>19.96912112489786</v>
       </c>
       <c r="N2">
-        <v>11.34827339475371</v>
+        <v>17.56673258165777</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.22831835882448</v>
+        <v>13.27768040354618</v>
       </c>
       <c r="C3">
-        <v>17.57624029537831</v>
+        <v>10.01559014073007</v>
       </c>
       <c r="D3">
-        <v>3.050849883745359</v>
+        <v>4.842248384897366</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.07411121830418</v>
+        <v>28.94125244399019</v>
       </c>
       <c r="G3">
-        <v>2.050028641632284</v>
+        <v>3.630003277128562</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.2538054707592</v>
+        <v>22.12318453253697</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.80280673750682</v>
+        <v>19.3658123765279</v>
       </c>
       <c r="N3">
-        <v>11.61749410216957</v>
+        <v>17.63548376069562</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.24426635183445</v>
+        <v>12.92464632814239</v>
       </c>
       <c r="C4">
-        <v>16.70818910346405</v>
+        <v>9.625036476472584</v>
       </c>
       <c r="D4">
-        <v>3.11300782202214</v>
+        <v>4.857157732237556</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.98885578661776</v>
+        <v>28.72489357479759</v>
       </c>
       <c r="G4">
-        <v>2.056728819766002</v>
+        <v>3.632379305103977</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.88874931224255</v>
+        <v>22.0981593658074</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.31975495507564</v>
+        <v>18.99400431950565</v>
       </c>
       <c r="N4">
-        <v>11.78582243181104</v>
+        <v>17.6796392945844</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.83069554896632</v>
+        <v>12.77888903744139</v>
       </c>
       <c r="C5">
-        <v>16.34380967737438</v>
+        <v>9.461765965658399</v>
       </c>
       <c r="D5">
-        <v>3.13850976599857</v>
+        <v>4.86338232631677</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.54448287241178</v>
+        <v>28.63887693845233</v>
       </c>
       <c r="G5">
-        <v>2.059494069082719</v>
+        <v>3.633376700472912</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.74380196967332</v>
+        <v>22.08957876943155</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.70242613189857</v>
+        <v>18.84239795604602</v>
       </c>
       <c r="N5">
-        <v>11.85520852373594</v>
+        <v>17.6981221897242</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.76125884582902</v>
+        <v>12.75457949112997</v>
       </c>
       <c r="C6">
-        <v>16.28265685792542</v>
+        <v>9.434411794355306</v>
       </c>
       <c r="D6">
-        <v>3.14275526435916</v>
+        <v>4.864424921922851</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.4705786213555</v>
+        <v>28.62472672901767</v>
       </c>
       <c r="G6">
-        <v>2.059955433428091</v>
+        <v>3.633544080902466</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.71996293156892</v>
+        <v>22.08825161614434</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.59910983724482</v>
+        <v>18.81722596690726</v>
       </c>
       <c r="N6">
-        <v>11.86677868337042</v>
+        <v>17.70122082852948</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.23873987591886</v>
+        <v>12.92268791620947</v>
       </c>
       <c r="C7">
-        <v>16.70331827793292</v>
+        <v>9.622850982373638</v>
       </c>
       <c r="D7">
-        <v>3.113351029638815</v>
+        <v>4.85724107577281</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.98287089915345</v>
+        <v>28.72372468379453</v>
       </c>
       <c r="G7">
-        <v>2.056765967548845</v>
+        <v>3.632392638165346</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.88677910210729</v>
+        <v>22.09803709757834</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.31148315242119</v>
+        <v>18.99195972906617</v>
       </c>
       <c r="N7">
-        <v>11.78675495456435</v>
+        <v>17.6798865796762</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.23594179290867</v>
+        <v>13.64723255319886</v>
       </c>
       <c r="C8">
-        <v>18.46667322828561</v>
+        <v>10.41780709249944</v>
       </c>
       <c r="D8">
-        <v>2.985059834798764</v>
+        <v>4.826846547780032</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.22398239976041</v>
+        <v>29.17919778736898</v>
       </c>
       <c r="G8">
-        <v>2.042988898794389</v>
+        <v>3.627567127121262</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.65651904373086</v>
+        <v>22.15541786605014</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.34369681528358</v>
+        <v>19.76153378576642</v>
       </c>
       <c r="N8">
-        <v>11.44049077916693</v>
+        <v>17.59003541198721</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.76999316704352</v>
+        <v>14.99120550088236</v>
       </c>
       <c r="C9">
-        <v>21.60372016116138</v>
+        <v>11.83602944588243</v>
       </c>
       <c r="D9">
-        <v>2.737636305267233</v>
+        <v>4.771908894810785</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.53447223443932</v>
+        <v>30.13237725487124</v>
       </c>
       <c r="G9">
-        <v>2.01679664359216</v>
+        <v>3.619014938999003</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.29089872513818</v>
+        <v>22.31889814294994</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.96393142861515</v>
+        <v>21.24931167273584</v>
       </c>
       <c r="N9">
-        <v>10.78413589812427</v>
+        <v>17.42920816820067</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.1460868978951</v>
+        <v>15.92093389650063</v>
       </c>
       <c r="C10">
-        <v>23.72687655434039</v>
+        <v>12.78638706213128</v>
       </c>
       <c r="D10">
-        <v>2.55765474854006</v>
+        <v>4.734362662053145</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.65803918831963</v>
+        <v>30.86271384207194</v>
       </c>
       <c r="G10">
-        <v>1.997774650429544</v>
+        <v>3.613279315399895</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.57504447201547</v>
+        <v>22.46985213146387</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.98843148733254</v>
+        <v>22.31649042186726</v>
       </c>
       <c r="N10">
-        <v>10.31394957738947</v>
+        <v>17.32036315213719</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.18235447019552</v>
+        <v>16.32953678030002</v>
       </c>
       <c r="C11">
-        <v>24.65689110938844</v>
+        <v>13.19799609199176</v>
       </c>
       <c r="D11">
-        <v>2.476154714607842</v>
+        <v>4.717887626976293</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.18894625095511</v>
+        <v>31.20005010024196</v>
       </c>
       <c r="G11">
-        <v>1.98909026235298</v>
+        <v>3.610787351321425</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.18012678590642</v>
+        <v>22.5451378789012</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.82617623499169</v>
+        <v>22.7939763778209</v>
       </c>
       <c r="N11">
-        <v>10.10231411161545</v>
+        <v>17.27285790264667</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.56864057847722</v>
+        <v>16.4820775824043</v>
       </c>
       <c r="C12">
-        <v>25.00425732062629</v>
+        <v>13.35083237882625</v>
       </c>
       <c r="D12">
-        <v>2.44536481573749</v>
+        <v>4.711735543885083</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.76612589810173</v>
+        <v>31.32840344908172</v>
       </c>
       <c r="G12">
-        <v>1.985788888563318</v>
+        <v>3.609860438851339</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.41261840155704</v>
+        <v>22.57458787285457</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.52657490721502</v>
+        <v>22.97346615961055</v>
       </c>
       <c r="N12">
-        <v>10.0224720652126</v>
+        <v>17.25515704627144</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.48571439463801</v>
+        <v>16.44932434351489</v>
       </c>
       <c r="C13">
-        <v>24.92965375560739</v>
+        <v>13.31805187069756</v>
       </c>
       <c r="D13">
-        <v>2.451992212531724</v>
+        <v>4.713056656202998</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.64191920039956</v>
+        <v>31.30073500285033</v>
       </c>
       <c r="G13">
-        <v>1.986500620156579</v>
+        <v>3.610059323305887</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.36239069725441</v>
+        <v>22.56820362719768</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.37546393860256</v>
+        <v>22.93487132160792</v>
       </c>
       <c r="N13">
-        <v>10.03965453200838</v>
+        <v>17.25895642587633</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.21425544147036</v>
+        <v>16.34213092226253</v>
       </c>
       <c r="C14">
-        <v>24.68556340801952</v>
+        <v>13.21063103213679</v>
       </c>
       <c r="D14">
-        <v>2.473619974260999</v>
+        <v>4.717379756567526</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.23647722957248</v>
+        <v>31.21059825091365</v>
       </c>
       <c r="G14">
-        <v>1.988818966980867</v>
+        <v>3.610710758821626</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.19918418351409</v>
+        <v>22.54754195637539</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.88368448015621</v>
+        <v>22.80877058882399</v>
       </c>
       <c r="N14">
-        <v>10.09573958928318</v>
+        <v>17.27139586645533</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.04719045185192</v>
+        <v>16.27618342600602</v>
       </c>
       <c r="C15">
-        <v>24.53543556391487</v>
+        <v>13.14443657052251</v>
       </c>
       <c r="D15">
-        <v>2.48687795543008</v>
+        <v>4.720039055736545</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>39.9878262054388</v>
+        <v>31.15546289860083</v>
       </c>
       <c r="G15">
-        <v>1.990237077646687</v>
+        <v>3.611111958609165</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.09966573234864</v>
+        <v>22.5350082812168</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.58316225888927</v>
+        <v>22.73135291747701</v>
       </c>
       <c r="N15">
-        <v>10.1301316259901</v>
+        <v>17.27905291974363</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.07749050396396</v>
+        <v>15.89393101444134</v>
       </c>
       <c r="C16">
-        <v>23.66540516046414</v>
+        <v>12.75906586440137</v>
       </c>
       <c r="D16">
-        <v>2.562989619754559</v>
+        <v>4.735451488342661</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.55882795834362</v>
+        <v>30.84076032810996</v>
       </c>
       <c r="G16">
-        <v>1.998340899895743</v>
+        <v>3.613444519814177</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.53594910677279</v>
+        <v>22.46506430777695</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.86874390800622</v>
+        <v>22.28510955026594</v>
       </c>
       <c r="N16">
-        <v>10.32782370011929</v>
+        <v>17.32350811020474</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.4713777055999</v>
+        <v>15.65566382018756</v>
       </c>
       <c r="C17">
-        <v>23.12272301840954</v>
+        <v>12.51730685131285</v>
       </c>
       <c r="D17">
-        <v>2.609784608678379</v>
+        <v>4.745061213182844</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.74929378171338</v>
+        <v>30.64892015164488</v>
       </c>
       <c r="G17">
-        <v>2.003298990908149</v>
+        <v>3.614905407831107</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.19569743553526</v>
+        <v>22.42384358183664</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.82094201834811</v>
+        <v>22.00917894959322</v>
       </c>
       <c r="N17">
-        <v>10.44966097919017</v>
+        <v>17.35129406984759</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.1185376485978</v>
+        <v>15.51727588353591</v>
       </c>
       <c r="C18">
-        <v>22.80719210928986</v>
+        <v>12.37630609297949</v>
       </c>
       <c r="D18">
-        <v>2.636733045774684</v>
+        <v>4.750645431225462</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.28294548690845</v>
+        <v>30.53906633325701</v>
       </c>
       <c r="G18">
-        <v>2.006148405901541</v>
+        <v>3.615756710129826</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.00193519205118</v>
+        <v>22.40075798140294</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.21867117205252</v>
+        <v>21.849729359504</v>
       </c>
       <c r="N18">
-        <v>10.51995211231329</v>
+        <v>17.36746493485202</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.99833891971474</v>
+        <v>15.47019361974868</v>
       </c>
       <c r="C19">
-        <v>22.6997661440366</v>
+        <v>12.32823300078462</v>
       </c>
       <c r="D19">
-        <v>2.645862782341604</v>
+        <v>4.75254594453561</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.12491014629084</v>
+        <v>30.50195919695125</v>
       </c>
       <c r="G19">
-        <v>2.007112989739942</v>
+        <v>3.616046845716796</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.93665533116499</v>
+        <v>22.39304896538744</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>37.01473176794492</v>
+        <v>21.79562076126028</v>
       </c>
       <c r="N19">
-        <v>10.54378892976534</v>
+        <v>17.37297260927826</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.53633419419165</v>
+        <v>15.68116773647737</v>
       </c>
       <c r="C20">
-        <v>23.18084146098545</v>
+        <v>12.54324447540452</v>
       </c>
       <c r="D20">
-        <v>2.604799697700611</v>
+        <v>4.744032349044558</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.83554189613736</v>
+        <v>30.66929229192202</v>
       </c>
       <c r="G20">
-        <v>2.002771490985205</v>
+        <v>3.614748752219628</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.2317147132529</v>
+        <v>22.42816714186359</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.93241945097267</v>
+        <v>22.03863032049294</v>
       </c>
       <c r="N20">
-        <v>10.43666927250191</v>
+        <v>17.34831663816497</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.29415327838868</v>
+        <v>16.37367653863063</v>
       </c>
       <c r="C21">
-        <v>24.75738624020839</v>
+        <v>13.2422657598466</v>
       </c>
       <c r="D21">
-        <v>2.467265152690459</v>
+        <v>4.716107607992612</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.35562755600699</v>
+        <v>31.23705797613895</v>
       </c>
       <c r="G21">
-        <v>1.988138435022988</v>
+        <v>3.610518962993512</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.24702724009296</v>
+        <v>22.55358534572235</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>41.02797677594379</v>
+        <v>22.84584667673693</v>
       </c>
       <c r="N21">
-        <v>10.07925810581579</v>
+        <v>17.26773427947002</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.40744406040792</v>
+        <v>16.81346977207273</v>
       </c>
       <c r="C22">
-        <v>25.75990912174946</v>
+        <v>13.68143249500827</v>
       </c>
       <c r="D22">
-        <v>2.377827421096433</v>
+        <v>4.698362122479534</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.03181515686858</v>
+        <v>31.61163364476741</v>
       </c>
       <c r="G22">
-        <v>1.978494980787671</v>
+        <v>3.607852073860698</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.93044550499475</v>
+        <v>22.64103170596056</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.07981043059993</v>
+        <v>23.36562366271158</v>
       </c>
       <c r="N22">
-        <v>9.847404696312402</v>
+        <v>17.2167495598014</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.81640669219142</v>
+        <v>16.57995251623872</v>
       </c>
       <c r="C23">
-        <v>25.22726487021518</v>
+        <v>13.44867341397506</v>
       </c>
       <c r="D23">
-        <v>2.425508391818096</v>
+        <v>4.707787126164313</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.13821275371842</v>
+        <v>31.4114347112501</v>
       </c>
       <c r="G23">
-        <v>1.983652467779489</v>
+        <v>3.60926655673076</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.56372269835197</v>
+        <v>22.59386257183389</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.98059879639612</v>
+        <v>23.08897504387128</v>
       </c>
       <c r="N23">
-        <v>9.970998500217954</v>
+        <v>17.24380746158104</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.5069810229844</v>
+        <v>15.66964178222332</v>
       </c>
       <c r="C24">
-        <v>23.15457715115148</v>
+        <v>12.5315243330224</v>
       </c>
       <c r="D24">
-        <v>2.607053235675627</v>
+        <v>4.744497313293942</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.79655207867943</v>
+        <v>30.66008067482085</v>
       </c>
       <c r="G24">
-        <v>2.003009976394648</v>
+        <v>3.614819540648079</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.21542555510132</v>
+        <v>22.42621055104233</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.88202036192369</v>
+        <v>22.02531787572816</v>
       </c>
       <c r="N24">
-        <v>10.44254205731427</v>
+        <v>17.34966212341259</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.85363125241323</v>
+        <v>14.63706425540825</v>
       </c>
       <c r="C25">
-        <v>20.78806278771846</v>
+        <v>11.46810963326184</v>
       </c>
       <c r="D25">
-        <v>2.804219200361949</v>
+        <v>4.786274402616248</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.37784317773082</v>
+        <v>29.86875864427717</v>
       </c>
       <c r="G25">
-        <v>2.023820387162542</v>
+        <v>3.621231817119506</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.83481023639364</v>
+        <v>22.26923246303584</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.47000490307257</v>
+        <v>20.85050875550169</v>
       </c>
       <c r="N25">
-        <v>10.95945953594894</v>
+        <v>17.47107653257314</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83880576904272</v>
+        <v>21.75076433358225</v>
       </c>
       <c r="C2">
-        <v>10.62394913076492</v>
+        <v>18.92226775521374</v>
       </c>
       <c r="D2">
-        <v>4.818927982790526</v>
+        <v>2.950616498767245</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.30690430826319</v>
+        <v>31.82579110882507</v>
       </c>
       <c r="G2">
-        <v>3.626321559908817</v>
+        <v>2.03932075820557</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.1744173994536</v>
+        <v>18.87335778516016</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96912112489786</v>
+        <v>30.14042824698098</v>
       </c>
       <c r="N2">
-        <v>17.56673258165777</v>
+        <v>11.34827339475371</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.27768040354618</v>
+        <v>20.22831835882461</v>
       </c>
       <c r="C3">
-        <v>10.01559014073007</v>
+        <v>17.57624029537832</v>
       </c>
       <c r="D3">
-        <v>4.842248384897366</v>
+        <v>3.050849883745436</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.94125244399019</v>
+        <v>30.07411121830422</v>
       </c>
       <c r="G3">
-        <v>3.630003277128562</v>
+        <v>2.050028641632549</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.12318453253697</v>
+        <v>18.25380547075921</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.3658123765279</v>
+        <v>27.80280673750678</v>
       </c>
       <c r="N3">
-        <v>17.63548376069562</v>
+        <v>11.61749410216958</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.92464632814239</v>
+        <v>19.24426635183433</v>
       </c>
       <c r="C4">
-        <v>9.625036476472584</v>
+        <v>16.70818910346402</v>
       </c>
       <c r="D4">
-        <v>4.857157732237556</v>
+        <v>3.113007822022087</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.72489357479759</v>
+        <v>28.98885578661792</v>
       </c>
       <c r="G4">
-        <v>3.632379305103977</v>
+        <v>2.056728819766137</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.0981593658074</v>
+        <v>17.88874931224277</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.99400431950565</v>
+        <v>26.31975495507557</v>
       </c>
       <c r="N4">
-        <v>17.6796392945844</v>
+        <v>11.78582243181114</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.77888903744139</v>
+        <v>18.83069554896637</v>
       </c>
       <c r="C5">
-        <v>9.461765965658399</v>
+        <v>16.34380967737437</v>
       </c>
       <c r="D5">
-        <v>4.86338232631677</v>
+        <v>3.138509765998567</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.63887693845233</v>
+        <v>28.54448287241174</v>
       </c>
       <c r="G5">
-        <v>3.633376700472912</v>
+        <v>2.059494069082723</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.08957876943155</v>
+        <v>17.74380196967324</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.84239795604602</v>
+        <v>25.70242613189862</v>
       </c>
       <c r="N5">
-        <v>17.6981221897242</v>
+        <v>11.85520852373584</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.75457949112997</v>
+        <v>18.76125884582896</v>
       </c>
       <c r="C6">
-        <v>9.434411794355306</v>
+        <v>16.28265685792525</v>
       </c>
       <c r="D6">
-        <v>4.864424921922851</v>
+        <v>3.142755264359421</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.62472672901767</v>
+        <v>28.47057862135557</v>
       </c>
       <c r="G6">
-        <v>3.633544080902466</v>
+        <v>2.059955433427555</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.08825161614434</v>
+        <v>17.71996293156903</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.81722596690726</v>
+        <v>25.59910983724476</v>
       </c>
       <c r="N6">
-        <v>17.70122082852948</v>
+        <v>11.86677868337049</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.92268791620947</v>
+        <v>19.2387398759188</v>
       </c>
       <c r="C7">
-        <v>9.622850982373638</v>
+        <v>16.70331827793291</v>
       </c>
       <c r="D7">
-        <v>4.85724107577281</v>
+        <v>3.113351029638876</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.72372468379453</v>
+        <v>28.98287089915342</v>
       </c>
       <c r="G7">
-        <v>3.632392638165346</v>
+        <v>2.056765967548845</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.09803709757834</v>
+        <v>17.88677910210728</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.99195972906617</v>
+        <v>26.31148315242115</v>
       </c>
       <c r="N7">
-        <v>17.6798865796762</v>
+        <v>11.78675495456428</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.64723255319886</v>
+        <v>21.23594179290864</v>
       </c>
       <c r="C8">
-        <v>10.41780709249944</v>
+        <v>18.46667322828561</v>
       </c>
       <c r="D8">
-        <v>4.826846547780032</v>
+        <v>2.985059834798887</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.17919778736898</v>
+        <v>31.22398239976041</v>
       </c>
       <c r="G8">
-        <v>3.627567127121262</v>
+        <v>2.042988898794388</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.15541786605014</v>
+        <v>18.65651904373087</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76153378576642</v>
+        <v>29.34369681528365</v>
       </c>
       <c r="N8">
-        <v>17.59003541198721</v>
+        <v>11.4404907791669</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.99120550088236</v>
+        <v>24.7699931670435</v>
       </c>
       <c r="C9">
-        <v>11.83602944588243</v>
+        <v>21.60372016116135</v>
       </c>
       <c r="D9">
-        <v>4.771908894810785</v>
+        <v>2.737636305267237</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.13237725487124</v>
+        <v>35.5344722344393</v>
       </c>
       <c r="G9">
-        <v>3.619014938999003</v>
+        <v>2.016796643592027</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.31889814294994</v>
+        <v>20.2908987251382</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.24931167273584</v>
+        <v>34.96393142861508</v>
       </c>
       <c r="N9">
-        <v>17.42920816820067</v>
+        <v>10.78413589812433</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92093389650063</v>
+        <v>27.14608689789507</v>
       </c>
       <c r="C10">
-        <v>12.78638706213128</v>
+        <v>23.72687655434034</v>
       </c>
       <c r="D10">
-        <v>4.734362662053145</v>
+        <v>2.557654748540184</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.86271384207194</v>
+        <v>38.65803918831963</v>
       </c>
       <c r="G10">
-        <v>3.613279315399895</v>
+        <v>1.997774650429677</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.46985213146387</v>
+        <v>21.5750444720155</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.31649042186726</v>
+        <v>38.98843148733245</v>
       </c>
       <c r="N10">
-        <v>17.32036315213719</v>
+        <v>10.31394957738951</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.32953678030002</v>
+        <v>28.18235447019556</v>
       </c>
       <c r="C11">
-        <v>13.19799609199176</v>
+        <v>24.6568911093885</v>
       </c>
       <c r="D11">
-        <v>4.717887626976293</v>
+        <v>2.476154714607798</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.20005010024196</v>
+        <v>40.18894625095525</v>
       </c>
       <c r="G11">
-        <v>3.610787351321425</v>
+        <v>1.989090262353111</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.5451378789012</v>
+        <v>22.1801267859065</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.7939763778209</v>
+        <v>40.82617623499158</v>
       </c>
       <c r="N11">
-        <v>17.27285790264667</v>
+        <v>10.10231411161544</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.4820775824043</v>
+        <v>28.56864057847718</v>
       </c>
       <c r="C12">
-        <v>13.35083237882625</v>
+        <v>25.00425732062633</v>
       </c>
       <c r="D12">
-        <v>4.711735543885083</v>
+        <v>2.445364815737557</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.32840344908172</v>
+        <v>40.76612589810168</v>
       </c>
       <c r="G12">
-        <v>3.609860438851339</v>
+        <v>1.98578888856332</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.57458787285457</v>
+        <v>22.41261840155704</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.97346615961055</v>
+        <v>41.52657490721486</v>
       </c>
       <c r="N12">
-        <v>17.25515704627144</v>
+        <v>10.02247206521266</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.44932434351489</v>
+        <v>28.48571439463801</v>
       </c>
       <c r="C13">
-        <v>13.31805187069756</v>
+        <v>24.92965375560732</v>
       </c>
       <c r="D13">
-        <v>4.713056656202998</v>
+        <v>2.451992212531615</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.30073500285033</v>
+        <v>40.64191920039961</v>
       </c>
       <c r="G13">
-        <v>3.610059323305887</v>
+        <v>1.986500620156852</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.56820362719768</v>
+        <v>22.36239069725446</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.93487132160792</v>
+        <v>41.37546393860247</v>
       </c>
       <c r="N13">
-        <v>17.25895642587633</v>
+        <v>10.03965453200835</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.34213092226253</v>
+        <v>28.21425544147028</v>
       </c>
       <c r="C14">
-        <v>13.21063103213679</v>
+        <v>24.68556340801952</v>
       </c>
       <c r="D14">
-        <v>4.717379756567526</v>
+        <v>2.473619974261062</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.21059825091365</v>
+        <v>40.23647722957242</v>
       </c>
       <c r="G14">
-        <v>3.610710758821626</v>
+        <v>1.988818966980598</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.54754195637539</v>
+        <v>22.19918418351412</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.80877058882399</v>
+        <v>40.8836844801562</v>
       </c>
       <c r="N14">
-        <v>17.27139586645533</v>
+        <v>10.09573958928327</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.27618342600602</v>
+        <v>28.04719045185199</v>
       </c>
       <c r="C15">
-        <v>13.14443657052251</v>
+        <v>24.53543556391498</v>
       </c>
       <c r="D15">
-        <v>4.720039055736545</v>
+        <v>2.486877955430021</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.15546289860083</v>
+        <v>39.98782620543895</v>
       </c>
       <c r="G15">
-        <v>3.611111958609165</v>
+        <v>1.990237077646554</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.5350082812168</v>
+        <v>22.09966573234867</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.73135291747701</v>
+        <v>40.58316225888932</v>
       </c>
       <c r="N15">
-        <v>17.27905291974363</v>
+        <v>10.13013162599</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.89393101444134</v>
+        <v>27.07749050396396</v>
       </c>
       <c r="C16">
-        <v>12.75906586440137</v>
+        <v>23.66540516046422</v>
       </c>
       <c r="D16">
-        <v>4.735451488342661</v>
+        <v>2.562989619754566</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.84076032810996</v>
+        <v>38.55882795834374</v>
       </c>
       <c r="G16">
-        <v>3.613444519814177</v>
+        <v>1.998340899895872</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.46506430777695</v>
+        <v>21.53594910677288</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.28510955026594</v>
+        <v>38.86874390800619</v>
       </c>
       <c r="N16">
-        <v>17.32350811020474</v>
+        <v>10.32782370011931</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.65566382018756</v>
+        <v>26.47137770560011</v>
       </c>
       <c r="C17">
-        <v>12.51730685131285</v>
+        <v>23.12272301840969</v>
       </c>
       <c r="D17">
-        <v>4.745061213182844</v>
+        <v>2.609784608678278</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.64892015164488</v>
+        <v>37.74929378171348</v>
       </c>
       <c r="G17">
-        <v>3.614905407831107</v>
+        <v>2.003298990908145</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.42384358183664</v>
+        <v>21.19569743553523</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.00917894959322</v>
+        <v>37.82094201834816</v>
       </c>
       <c r="N17">
-        <v>17.35129406984759</v>
+        <v>10.44966097919009</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.51727588353591</v>
+        <v>26.11853764859772</v>
       </c>
       <c r="C18">
-        <v>12.37630609297949</v>
+        <v>22.80719210928984</v>
       </c>
       <c r="D18">
-        <v>4.750645431225462</v>
+        <v>2.636733045774687</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.53906633325701</v>
+        <v>37.28294548690845</v>
       </c>
       <c r="G18">
-        <v>3.615756710129826</v>
+        <v>2.006148405901412</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.40075798140294</v>
+        <v>21.00193519205119</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.849729359504</v>
+        <v>37.21867117205256</v>
       </c>
       <c r="N18">
-        <v>17.36746493485202</v>
+        <v>10.51995211231324</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.47019361974868</v>
+        <v>25.99833891971467</v>
       </c>
       <c r="C19">
-        <v>12.32823300078462</v>
+        <v>22.69976614403643</v>
       </c>
       <c r="D19">
-        <v>4.75254594453561</v>
+        <v>2.645862782341665</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.50195919695125</v>
+        <v>37.12491014629081</v>
       </c>
       <c r="G19">
-        <v>3.616046845716796</v>
+        <v>2.007112989739803</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.39304896538744</v>
+        <v>20.93665533116501</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.79562076126028</v>
+        <v>37.01473176794499</v>
       </c>
       <c r="N19">
-        <v>17.37297260927826</v>
+        <v>10.54378892976537</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.68116773647737</v>
+        <v>26.53633419419171</v>
       </c>
       <c r="C20">
-        <v>12.54324447540452</v>
+        <v>23.18084146098557</v>
       </c>
       <c r="D20">
-        <v>4.744032349044558</v>
+        <v>2.604799697700797</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.66929229192202</v>
+        <v>37.83554189613752</v>
       </c>
       <c r="G20">
-        <v>3.614748752219628</v>
+        <v>2.002771490985074</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.42816714186359</v>
+        <v>21.23171471325298</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.03863032049294</v>
+        <v>37.93241945097268</v>
       </c>
       <c r="N20">
-        <v>17.34831663816497</v>
+        <v>10.43666927250193</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.37367653863063</v>
+        <v>28.2941532783889</v>
       </c>
       <c r="C21">
-        <v>13.2422657598466</v>
+        <v>24.75738624020845</v>
       </c>
       <c r="D21">
-        <v>4.716107607992612</v>
+        <v>2.467265152690219</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.23705797613895</v>
+        <v>40.35562755600719</v>
       </c>
       <c r="G21">
-        <v>3.610518962993512</v>
+        <v>1.988138435022989</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.55358534572235</v>
+        <v>22.24702724009298</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.84584667673693</v>
+        <v>41.02797677594386</v>
       </c>
       <c r="N21">
-        <v>17.26773427947002</v>
+        <v>10.07925810581573</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.81346977207273</v>
+        <v>29.40744406040774</v>
       </c>
       <c r="C22">
-        <v>13.68143249500827</v>
+        <v>25.75990912174942</v>
       </c>
       <c r="D22">
-        <v>4.698362122479534</v>
+        <v>2.37782742109645</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.61163364476741</v>
+        <v>42.03181515686838</v>
       </c>
       <c r="G22">
-        <v>3.607852073860698</v>
+        <v>1.978494980787795</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.64103170596056</v>
+        <v>22.9304455049947</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.36562366271158</v>
+        <v>43.07981043059996</v>
       </c>
       <c r="N22">
-        <v>17.2167495598014</v>
+        <v>9.847404696312438</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.57995251623872</v>
+        <v>28.81640669219145</v>
       </c>
       <c r="C23">
-        <v>13.44867341397506</v>
+        <v>25.22726487021512</v>
       </c>
       <c r="D23">
-        <v>4.707787126164313</v>
+        <v>2.425508391818196</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.4114347112501</v>
+        <v>41.13821275371848</v>
       </c>
       <c r="G23">
-        <v>3.60926655673076</v>
+        <v>1.983652467779492</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.59386257183389</v>
+        <v>22.56372269835207</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.08897504387128</v>
+        <v>41.98059879639624</v>
       </c>
       <c r="N23">
-        <v>17.24380746158104</v>
+        <v>9.970998500218089</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.66964178222332</v>
+        <v>26.50698102298453</v>
       </c>
       <c r="C24">
-        <v>12.5315243330224</v>
+        <v>23.15457715115158</v>
       </c>
       <c r="D24">
-        <v>4.744497313293942</v>
+        <v>2.607053235675762</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.66008067482085</v>
+        <v>37.79655207867948</v>
       </c>
       <c r="G24">
-        <v>3.614819540648079</v>
+        <v>2.003009976394518</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.42621055104233</v>
+        <v>21.2154255551013</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02531787572816</v>
+        <v>37.88202036192372</v>
       </c>
       <c r="N24">
-        <v>17.34966212341259</v>
+        <v>10.44254205731416</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.63706425540825</v>
+        <v>23.85363125241337</v>
       </c>
       <c r="C25">
-        <v>11.46810963326184</v>
+        <v>20.78806278771868</v>
       </c>
       <c r="D25">
-        <v>4.786274402616248</v>
+        <v>2.804219200361836</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.86875864427717</v>
+        <v>34.37784317773089</v>
       </c>
       <c r="G25">
-        <v>3.621231817119506</v>
+        <v>2.023820387162676</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.26923246303584</v>
+        <v>19.83481023639361</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85050875550169</v>
+        <v>33.47000490307262</v>
       </c>
       <c r="N25">
-        <v>17.47107653257314</v>
+        <v>10.95945953594886</v>
       </c>
       <c r="O25">
         <v>0</v>
